--- a/scilab/Data.xlsx
+++ b/scilab/Data.xlsx
@@ -34,12 +34,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -54,11 +60,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -363,15 +370,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S150"/>
+  <dimension ref="A1:V150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A123" sqref="A123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
         <v>200</v>
       </c>
@@ -429,8 +436,17 @@
       <c r="S1" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T1">
+        <v>0</v>
+      </c>
+      <c r="U1">
+        <v>0</v>
+      </c>
+      <c r="V1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>240</v>
       </c>
@@ -488,8 +504,17 @@
       <c r="S2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>200</v>
       </c>
@@ -547,8 +572,17 @@
       <c r="S3" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T3" s="4">
+        <v>0</v>
+      </c>
+      <c r="U3" s="4">
+        <v>1</v>
+      </c>
+      <c r="V3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>200</v>
       </c>
@@ -606,8 +640,17 @@
       <c r="S4" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>240</v>
       </c>
@@ -665,8 +708,17 @@
       <c r="S5" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>240</v>
       </c>
@@ -724,8 +776,17 @@
       <c r="S6" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>186.36414338985142</v>
       </c>
@@ -783,8 +844,17 @@
       <c r="S7" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>220</v>
       </c>
@@ -842,8 +912,17 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>220</v>
       </c>
@@ -901,8 +980,17 @@
       <c r="S9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>220</v>
       </c>
@@ -960,8 +1048,17 @@
       <c r="S10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>200</v>
       </c>
@@ -1019,8 +1116,17 @@
       <c r="S11" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>240</v>
       </c>
@@ -1081,8 +1187,17 @@
         <f>S2</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>200</v>
       </c>
@@ -1143,8 +1258,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T13" s="4">
+        <v>0</v>
+      </c>
+      <c r="U13" s="4">
+        <v>1</v>
+      </c>
+      <c r="V13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>200</v>
       </c>
@@ -1205,8 +1329,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>240</v>
       </c>
@@ -1267,8 +1400,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>240</v>
       </c>
@@ -1329,8 +1471,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>186.36414338985142</v>
       </c>
@@ -1391,8 +1542,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>220</v>
       </c>
@@ -1453,8 +1613,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>220</v>
       </c>
@@ -1515,8 +1684,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>220</v>
       </c>
@@ -1577,8 +1755,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>200</v>
       </c>
@@ -1636,8 +1823,17 @@
       <c r="S21" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>240</v>
       </c>
@@ -1698,8 +1894,17 @@
         <f>S12</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>200</v>
       </c>
@@ -1760,8 +1965,17 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T23" s="4">
+        <v>0</v>
+      </c>
+      <c r="U23" s="4">
+        <v>1</v>
+      </c>
+      <c r="V23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>200</v>
       </c>
@@ -1822,8 +2036,17 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>240</v>
       </c>
@@ -1884,8 +2107,17 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>240</v>
       </c>
@@ -1946,8 +2178,17 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>186.36414338985142</v>
       </c>
@@ -2008,8 +2249,17 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>1</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>220</v>
       </c>
@@ -2070,8 +2320,17 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T28">
+        <v>1</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>220</v>
       </c>
@@ -2132,8 +2391,17 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>1</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>220</v>
       </c>
@@ -2194,8 +2462,17 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>200</v>
       </c>
@@ -2253,8 +2530,17 @@
       <c r="S31" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>240</v>
       </c>
@@ -2315,8 +2601,17 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>200</v>
       </c>
@@ -2377,8 +2672,17 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T33" s="4">
+        <v>0</v>
+      </c>
+      <c r="U33" s="4">
+        <v>1</v>
+      </c>
+      <c r="V33" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>200</v>
       </c>
@@ -2439,8 +2743,17 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>240</v>
       </c>
@@ -2501,8 +2814,17 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>240</v>
       </c>
@@ -2563,8 +2885,17 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T36">
+        <v>1</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>186.36414338985142</v>
       </c>
@@ -2625,8 +2956,17 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>1</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>220</v>
       </c>
@@ -2687,8 +3027,17 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T38">
+        <v>1</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>220</v>
       </c>
@@ -2749,8 +3098,17 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>1</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>220</v>
       </c>
@@ -2811,8 +3169,17 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>200</v>
       </c>
@@ -2870,8 +3237,17 @@
       <c r="S41" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>240</v>
       </c>
@@ -2932,8 +3308,17 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>200</v>
       </c>
@@ -2994,8 +3379,17 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T43" s="4">
+        <v>0</v>
+      </c>
+      <c r="U43" s="4">
+        <v>1</v>
+      </c>
+      <c r="V43" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>200</v>
       </c>
@@ -3056,8 +3450,17 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>240</v>
       </c>
@@ -3118,8 +3521,17 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>240</v>
       </c>
@@ -3180,8 +3592,17 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T46">
+        <v>1</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>186.36414338985142</v>
       </c>
@@ -3242,8 +3663,17 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>1</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>220</v>
       </c>
@@ -3304,8 +3734,17 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T48">
+        <v>1</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>220</v>
       </c>
@@ -3366,8 +3805,17 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>1</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>220</v>
       </c>
@@ -3428,8 +3876,17 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>200</v>
       </c>
@@ -3487,8 +3944,17 @@
       <c r="S51" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>240</v>
       </c>
@@ -3549,8 +4015,17 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="V52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>200</v>
       </c>
@@ -3611,8 +4086,17 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T53" s="4">
+        <v>0</v>
+      </c>
+      <c r="U53" s="4">
+        <v>1</v>
+      </c>
+      <c r="V53" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>200</v>
       </c>
@@ -3673,8 +4157,17 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <v>0</v>
+      </c>
+      <c r="V54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>240</v>
       </c>
@@ -3735,8 +4228,17 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>0</v>
+      </c>
+      <c r="V55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>240</v>
       </c>
@@ -3797,8 +4299,17 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T56">
+        <v>1</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>186.36414338985142</v>
       </c>
@@ -3859,8 +4370,17 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <v>1</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>220</v>
       </c>
@@ -3921,8 +4441,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T58">
+        <v>1</v>
+      </c>
+      <c r="U58">
+        <v>0</v>
+      </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>220</v>
       </c>
@@ -3983,8 +4512,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T59">
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <v>1</v>
+      </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>220</v>
       </c>
@@ -4045,8 +4583,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <v>0</v>
+      </c>
+      <c r="V60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>200</v>
       </c>
@@ -4104,8 +4651,17 @@
       <c r="S61" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>0</v>
+      </c>
+      <c r="V61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>240</v>
       </c>
@@ -4166,8 +4722,17 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <v>0</v>
+      </c>
+      <c r="V62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>200</v>
       </c>
@@ -4228,8 +4793,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T63" s="4">
+        <v>0</v>
+      </c>
+      <c r="U63" s="4">
+        <v>1</v>
+      </c>
+      <c r="V63" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>200</v>
       </c>
@@ -4290,8 +4864,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <v>0</v>
+      </c>
+      <c r="V64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>240</v>
       </c>
@@ -4352,8 +4935,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <v>0</v>
+      </c>
+      <c r="V65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>240</v>
       </c>
@@ -4414,8 +5006,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T66">
+        <v>1</v>
+      </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
+      <c r="V66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>186.36414338985142</v>
       </c>
@@ -4476,8 +5077,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>1</v>
+      </c>
+      <c r="V67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>220</v>
       </c>
@@ -4538,8 +5148,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T68">
+        <v>1</v>
+      </c>
+      <c r="U68">
+        <v>0</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>220</v>
       </c>
@@ -4600,8 +5219,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T69">
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <v>1</v>
+      </c>
+      <c r="V69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>220</v>
       </c>
@@ -4662,8 +5290,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <v>0</v>
+      </c>
+      <c r="V70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>200</v>
       </c>
@@ -4721,8 +5358,17 @@
       <c r="S71" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>0</v>
+      </c>
+      <c r="V71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>240</v>
       </c>
@@ -4783,8 +5429,17 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T72">
+        <v>0</v>
+      </c>
+      <c r="U72">
+        <v>0</v>
+      </c>
+      <c r="V72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>200</v>
       </c>
@@ -4845,8 +5500,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T73" s="4">
+        <v>0</v>
+      </c>
+      <c r="U73" s="4">
+        <v>1</v>
+      </c>
+      <c r="V73" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>200</v>
       </c>
@@ -4907,8 +5571,17 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <v>0</v>
+      </c>
+      <c r="V74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>240</v>
       </c>
@@ -4969,8 +5642,17 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>0</v>
+      </c>
+      <c r="V75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>240</v>
       </c>
@@ -5031,8 +5713,17 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T76">
+        <v>1</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>186.36414338985142</v>
       </c>
@@ -5093,8 +5784,17 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T77">
+        <v>0</v>
+      </c>
+      <c r="U77">
+        <v>1</v>
+      </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>220</v>
       </c>
@@ -5155,8 +5855,17 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T78">
+        <v>1</v>
+      </c>
+      <c r="U78">
+        <v>0</v>
+      </c>
+      <c r="V78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>220</v>
       </c>
@@ -5217,8 +5926,17 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T79">
+        <v>0</v>
+      </c>
+      <c r="U79">
+        <v>1</v>
+      </c>
+      <c r="V79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>220</v>
       </c>
@@ -5279,8 +5997,17 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T80">
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <v>0</v>
+      </c>
+      <c r="V80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>200</v>
       </c>
@@ -5338,8 +6065,17 @@
       <c r="S81" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T81">
+        <v>0</v>
+      </c>
+      <c r="U81">
+        <v>0</v>
+      </c>
+      <c r="V81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>240</v>
       </c>
@@ -5400,8 +6136,17 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T82">
+        <v>0</v>
+      </c>
+      <c r="U82">
+        <v>0</v>
+      </c>
+      <c r="V82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>200</v>
       </c>
@@ -5462,8 +6207,17 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T83" s="4">
+        <v>0</v>
+      </c>
+      <c r="U83" s="4">
+        <v>1</v>
+      </c>
+      <c r="V83" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>200</v>
       </c>
@@ -5524,8 +6278,17 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T84">
+        <v>0</v>
+      </c>
+      <c r="U84">
+        <v>0</v>
+      </c>
+      <c r="V84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>240</v>
       </c>
@@ -5586,8 +6349,17 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T85">
+        <v>0</v>
+      </c>
+      <c r="U85">
+        <v>0</v>
+      </c>
+      <c r="V85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>240</v>
       </c>
@@ -5648,8 +6420,17 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T86">
+        <v>1</v>
+      </c>
+      <c r="U86">
+        <v>0</v>
+      </c>
+      <c r="V86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>186.36414338985142</v>
       </c>
@@ -5710,8 +6491,17 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T87">
+        <v>0</v>
+      </c>
+      <c r="U87">
+        <v>1</v>
+      </c>
+      <c r="V87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>220</v>
       </c>
@@ -5772,8 +6562,17 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T88">
+        <v>1</v>
+      </c>
+      <c r="U88">
+        <v>0</v>
+      </c>
+      <c r="V88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>220</v>
       </c>
@@ -5834,8 +6633,17 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T89">
+        <v>0</v>
+      </c>
+      <c r="U89">
+        <v>1</v>
+      </c>
+      <c r="V89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>220</v>
       </c>
@@ -5896,8 +6704,17 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T90">
+        <v>0</v>
+      </c>
+      <c r="U90">
+        <v>0</v>
+      </c>
+      <c r="V90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>200</v>
       </c>
@@ -5955,8 +6772,17 @@
       <c r="S91" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T91">
+        <v>0</v>
+      </c>
+      <c r="U91">
+        <v>0</v>
+      </c>
+      <c r="V91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>240</v>
       </c>
@@ -6017,8 +6843,17 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T92">
+        <v>0</v>
+      </c>
+      <c r="U92">
+        <v>0</v>
+      </c>
+      <c r="V92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>200</v>
       </c>
@@ -6079,8 +6914,17 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T93" s="4">
+        <v>0</v>
+      </c>
+      <c r="U93" s="4">
+        <v>1</v>
+      </c>
+      <c r="V93" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>200</v>
       </c>
@@ -6141,8 +6985,17 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T94">
+        <v>0</v>
+      </c>
+      <c r="U94">
+        <v>0</v>
+      </c>
+      <c r="V94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>240</v>
       </c>
@@ -6203,8 +7056,17 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T95">
+        <v>0</v>
+      </c>
+      <c r="U95">
+        <v>0</v>
+      </c>
+      <c r="V95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>240</v>
       </c>
@@ -6265,8 +7127,17 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T96">
+        <v>1</v>
+      </c>
+      <c r="U96">
+        <v>0</v>
+      </c>
+      <c r="V96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>186.36414338985142</v>
       </c>
@@ -6327,8 +7198,17 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T97">
+        <v>0</v>
+      </c>
+      <c r="U97">
+        <v>1</v>
+      </c>
+      <c r="V97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>220</v>
       </c>
@@ -6389,8 +7269,17 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T98">
+        <v>1</v>
+      </c>
+      <c r="U98">
+        <v>0</v>
+      </c>
+      <c r="V98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>220</v>
       </c>
@@ -6451,8 +7340,17 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T99">
+        <v>0</v>
+      </c>
+      <c r="U99">
+        <v>1</v>
+      </c>
+      <c r="V99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>220</v>
       </c>
@@ -6513,8 +7411,17 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T100">
+        <v>0</v>
+      </c>
+      <c r="U100">
+        <v>0</v>
+      </c>
+      <c r="V100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>200</v>
       </c>
@@ -6572,8 +7479,17 @@
       <c r="S101" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T101">
+        <v>0</v>
+      </c>
+      <c r="U101">
+        <v>0</v>
+      </c>
+      <c r="V101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>240</v>
       </c>
@@ -6634,8 +7550,17 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T102">
+        <v>0</v>
+      </c>
+      <c r="U102">
+        <v>0</v>
+      </c>
+      <c r="V102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>200</v>
       </c>
@@ -6696,8 +7621,17 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T103" s="4">
+        <v>0</v>
+      </c>
+      <c r="U103" s="4">
+        <v>1</v>
+      </c>
+      <c r="V103" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>200</v>
       </c>
@@ -6758,8 +7692,17 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T104">
+        <v>0</v>
+      </c>
+      <c r="U104">
+        <v>0</v>
+      </c>
+      <c r="V104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>240</v>
       </c>
@@ -6820,8 +7763,17 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T105">
+        <v>0</v>
+      </c>
+      <c r="U105">
+        <v>0</v>
+      </c>
+      <c r="V105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>240</v>
       </c>
@@ -6882,8 +7834,17 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T106">
+        <v>1</v>
+      </c>
+      <c r="U106">
+        <v>0</v>
+      </c>
+      <c r="V106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>186.36414338985142</v>
       </c>
@@ -6944,8 +7905,17 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T107">
+        <v>0</v>
+      </c>
+      <c r="U107">
+        <v>1</v>
+      </c>
+      <c r="V107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>220</v>
       </c>
@@ -7006,8 +7976,17 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T108">
+        <v>1</v>
+      </c>
+      <c r="U108">
+        <v>0</v>
+      </c>
+      <c r="V108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>220</v>
       </c>
@@ -7068,8 +8047,17 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T109">
+        <v>0</v>
+      </c>
+      <c r="U109">
+        <v>1</v>
+      </c>
+      <c r="V109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>220</v>
       </c>
@@ -7130,8 +8118,17 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T110">
+        <v>0</v>
+      </c>
+      <c r="U110">
+        <v>0</v>
+      </c>
+      <c r="V110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>200</v>
       </c>
@@ -7189,8 +8186,17 @@
       <c r="S111" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T111">
+        <v>0</v>
+      </c>
+      <c r="U111">
+        <v>0</v>
+      </c>
+      <c r="V111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>240</v>
       </c>
@@ -7251,8 +8257,17 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T112">
+        <v>0</v>
+      </c>
+      <c r="U112">
+        <v>0</v>
+      </c>
+      <c r="V112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>200</v>
       </c>
@@ -7313,8 +8328,17 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T113" s="4">
+        <v>0</v>
+      </c>
+      <c r="U113" s="4">
+        <v>1</v>
+      </c>
+      <c r="V113" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>200</v>
       </c>
@@ -7375,8 +8399,17 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T114">
+        <v>0</v>
+      </c>
+      <c r="U114">
+        <v>0</v>
+      </c>
+      <c r="V114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>240</v>
       </c>
@@ -7437,8 +8470,17 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T115">
+        <v>0</v>
+      </c>
+      <c r="U115">
+        <v>0</v>
+      </c>
+      <c r="V115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>240</v>
       </c>
@@ -7499,8 +8541,17 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T116">
+        <v>1</v>
+      </c>
+      <c r="U116">
+        <v>0</v>
+      </c>
+      <c r="V116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>186.36414338985142</v>
       </c>
@@ -7561,8 +8612,17 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T117">
+        <v>0</v>
+      </c>
+      <c r="U117">
+        <v>1</v>
+      </c>
+      <c r="V117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>220</v>
       </c>
@@ -7623,8 +8683,17 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T118">
+        <v>1</v>
+      </c>
+      <c r="U118">
+        <v>0</v>
+      </c>
+      <c r="V118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>220</v>
       </c>
@@ -7685,8 +8754,17 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T119">
+        <v>0</v>
+      </c>
+      <c r="U119">
+        <v>1</v>
+      </c>
+      <c r="V119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>220</v>
       </c>
@@ -7747,8 +8825,17 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T120">
+        <v>0</v>
+      </c>
+      <c r="U120">
+        <v>0</v>
+      </c>
+      <c r="V120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>200</v>
       </c>
@@ -7806,8 +8893,17 @@
       <c r="S121" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T121">
+        <v>0</v>
+      </c>
+      <c r="U121">
+        <v>0</v>
+      </c>
+      <c r="V121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>240</v>
       </c>
@@ -7868,8 +8964,17 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T122">
+        <v>0</v>
+      </c>
+      <c r="U122">
+        <v>0</v>
+      </c>
+      <c r="V122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>200</v>
       </c>
@@ -7930,8 +9035,17 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T123" s="4">
+        <v>0</v>
+      </c>
+      <c r="U123" s="4">
+        <v>1</v>
+      </c>
+      <c r="V123" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>200</v>
       </c>
@@ -7992,8 +9106,17 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T124">
+        <v>0</v>
+      </c>
+      <c r="U124">
+        <v>0</v>
+      </c>
+      <c r="V124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>240</v>
       </c>
@@ -8054,8 +9177,17 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T125">
+        <v>0</v>
+      </c>
+      <c r="U125">
+        <v>0</v>
+      </c>
+      <c r="V125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>240</v>
       </c>
@@ -8116,8 +9248,17 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T126">
+        <v>1</v>
+      </c>
+      <c r="U126">
+        <v>0</v>
+      </c>
+      <c r="V126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>186.36414338985142</v>
       </c>
@@ -8178,8 +9319,17 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T127">
+        <v>0</v>
+      </c>
+      <c r="U127">
+        <v>1</v>
+      </c>
+      <c r="V127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>220</v>
       </c>
@@ -8240,8 +9390,17 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T128">
+        <v>1</v>
+      </c>
+      <c r="U128">
+        <v>0</v>
+      </c>
+      <c r="V128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>220</v>
       </c>
@@ -8302,8 +9461,17 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T129">
+        <v>0</v>
+      </c>
+      <c r="U129">
+        <v>1</v>
+      </c>
+      <c r="V129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>220</v>
       </c>
@@ -8364,8 +9532,17 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T130">
+        <v>0</v>
+      </c>
+      <c r="U130">
+        <v>0</v>
+      </c>
+      <c r="V130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>200</v>
       </c>
@@ -8423,8 +9600,17 @@
       <c r="S131" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T131">
+        <v>0</v>
+      </c>
+      <c r="U131">
+        <v>0</v>
+      </c>
+      <c r="V131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>240</v>
       </c>
@@ -8485,8 +9671,17 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T132">
+        <v>0</v>
+      </c>
+      <c r="U132">
+        <v>0</v>
+      </c>
+      <c r="V132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>200</v>
       </c>
@@ -8547,8 +9742,17 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T133" s="4">
+        <v>0</v>
+      </c>
+      <c r="U133" s="4">
+        <v>1</v>
+      </c>
+      <c r="V133" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>200</v>
       </c>
@@ -8609,8 +9813,17 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T134">
+        <v>0</v>
+      </c>
+      <c r="U134">
+        <v>0</v>
+      </c>
+      <c r="V134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>240</v>
       </c>
@@ -8671,8 +9884,17 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T135">
+        <v>0</v>
+      </c>
+      <c r="U135">
+        <v>0</v>
+      </c>
+      <c r="V135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>240</v>
       </c>
@@ -8733,8 +9955,17 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T136">
+        <v>1</v>
+      </c>
+      <c r="U136">
+        <v>0</v>
+      </c>
+      <c r="V136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>186.36414338985142</v>
       </c>
@@ -8795,8 +10026,17 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T137">
+        <v>0</v>
+      </c>
+      <c r="U137">
+        <v>1</v>
+      </c>
+      <c r="V137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>220</v>
       </c>
@@ -8857,8 +10097,17 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T138">
+        <v>1</v>
+      </c>
+      <c r="U138">
+        <v>0</v>
+      </c>
+      <c r="V138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>220</v>
       </c>
@@ -8919,8 +10168,17 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T139">
+        <v>0</v>
+      </c>
+      <c r="U139">
+        <v>1</v>
+      </c>
+      <c r="V139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>220</v>
       </c>
@@ -8981,8 +10239,17 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T140">
+        <v>0</v>
+      </c>
+      <c r="U140">
+        <v>0</v>
+      </c>
+      <c r="V140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>200</v>
       </c>
@@ -9040,8 +10307,17 @@
       <c r="S141" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T141">
+        <v>0</v>
+      </c>
+      <c r="U141">
+        <v>0</v>
+      </c>
+      <c r="V141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>240</v>
       </c>
@@ -9102,8 +10378,17 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T142">
+        <v>0</v>
+      </c>
+      <c r="U142">
+        <v>0</v>
+      </c>
+      <c r="V142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>200</v>
       </c>
@@ -9164,8 +10449,17 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T143" s="4">
+        <v>0</v>
+      </c>
+      <c r="U143" s="4">
+        <v>1</v>
+      </c>
+      <c r="V143" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>200</v>
       </c>
@@ -9226,8 +10520,17 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T144">
+        <v>0</v>
+      </c>
+      <c r="U144">
+        <v>0</v>
+      </c>
+      <c r="V144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>240</v>
       </c>
@@ -9288,8 +10591,17 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T145">
+        <v>0</v>
+      </c>
+      <c r="U145">
+        <v>0</v>
+      </c>
+      <c r="V145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>240</v>
       </c>
@@ -9350,8 +10662,17 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T146">
+        <v>1</v>
+      </c>
+      <c r="U146">
+        <v>0</v>
+      </c>
+      <c r="V146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>186.36414338985142</v>
       </c>
@@ -9412,8 +10733,17 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T147">
+        <v>0</v>
+      </c>
+      <c r="U147">
+        <v>1</v>
+      </c>
+      <c r="V147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>220</v>
       </c>
@@ -9474,8 +10804,17 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T148">
+        <v>1</v>
+      </c>
+      <c r="U148">
+        <v>0</v>
+      </c>
+      <c r="V148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>220</v>
       </c>
@@ -9536,8 +10875,17 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T149">
+        <v>0</v>
+      </c>
+      <c r="U149">
+        <v>1</v>
+      </c>
+      <c r="V149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>220</v>
       </c>
@@ -9597,6 +10945,15 @@
       <c r="S150">
         <f t="shared" si="9"/>
         <v>0</v>
+      </c>
+      <c r="T150">
+        <v>0</v>
+      </c>
+      <c r="U150">
+        <v>0</v>
+      </c>
+      <c r="V150">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
